--- a/Test-cases v1.0 (requirements).xlsx
+++ b/Test-cases v1.0 (requirements).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\Desktop\Examples for tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\Documents\Git\Test ListBoxer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1056,6 +1056,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,34 +1074,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1101,19 +1098,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2201,14 +2201,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H211" sqref="H211"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="2" customWidth="1"/>
@@ -2244,1068 +2244,1068 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>280</v>
       </c>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="16">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="16">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>8</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="16">
         <v>9</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="16">
+        <v>10</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="16">
         <v>11</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="G22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="16">
         <v>12</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="16">
         <v>13</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="13" t="s">
+      <c r="G26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="16">
         <v>14</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="16">
         <v>15</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="12"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+      <c r="A32" s="16">
         <v>16</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="16">
         <v>17</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="13" t="s">
+      <c r="G34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="13"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="16">
         <v>18</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="13" t="s">
+      <c r="G36" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="13"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="16">
         <v>19</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="A40" s="16">
         <v>20</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="13" t="s">
+      <c r="G40" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="13"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="16">
         <v>21</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="13" t="s">
+      <c r="G42" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="13"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="A44" s="16">
         <v>23</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="13" t="s">
+      <c r="G44" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="13"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+      <c r="A46" s="16">
         <v>24</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="13" t="s">
+      <c r="G46" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="13"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="A48" s="16">
         <v>25</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G48" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="13" t="s">
+      <c r="G48" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="13"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="16">
         <v>26</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="12"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+      <c r="A52" s="16">
         <v>27</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="13" t="s">
+      <c r="G52" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="16" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="13"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+      <c r="A54" s="16">
         <v>28</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="13" t="s">
+      <c r="G54" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="16" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="13"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+      <c r="A56" s="16">
         <v>29</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -3317,17 +3317,17 @@
       <c r="G56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="16" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="13"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="7" t="s">
         <v>31</v>
       </c>
@@ -3337,95 +3337,95 @@
       <c r="G57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="13"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="A58" s="16">
         <v>30</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="13" t="s">
+      <c r="G58" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="13"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+      <c r="A60" s="16">
         <v>30</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="G60" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="13" t="s">
+      <c r="G60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="13"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+      <c r="A62" s="16">
         <v>31</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="16" t="s">
         <v>185</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -3437,17 +3437,17 @@
       <c r="G62" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="13"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="7" t="s">
         <v>36</v>
       </c>
@@ -3457,19 +3457,19 @@
       <c r="G63" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="13"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
+      <c r="A64" s="16">
         <v>32</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="16" t="s">
         <v>150</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -3481,7 +3481,7 @@
       <c r="G64" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="16" t="s">
         <v>276</v>
       </c>
       <c r="I64" s="9" t="s">
@@ -3489,12 +3489,12 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="13"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="7" t="s">
         <v>36</v>
       </c>
@@ -3504,22 +3504,22 @@
       <c r="G65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="13"/>
+      <c r="H65" s="16"/>
       <c r="I65" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
+      <c r="A66" s="16">
         <v>33</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="16" t="s">
         <v>186</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -3531,17 +3531,17 @@
       <c r="G66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="18" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="13"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="7" t="s">
         <v>282</v>
       </c>
@@ -3551,13 +3551,13 @@
       <c r="G67" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="21"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="13"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="7" t="s">
         <v>44</v>
       </c>
@@ -3567,19 +3567,19 @@
       <c r="G68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="15"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
+      <c r="A69" s="16">
         <v>34</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="16" t="s">
         <v>187</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -3591,17 +3591,17 @@
       <c r="G69" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="18" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="13"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="7" t="s">
         <v>45</v>
       </c>
@@ -3611,13 +3611,13 @@
       <c r="G70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="13"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="13"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="7" t="s">
         <v>44</v>
       </c>
@@ -3627,19 +3627,19 @@
       <c r="G71" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="13"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
+      <c r="A72" s="16">
         <v>35</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -3651,17 +3651,17 @@
       <c r="G72" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="13"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="7" t="s">
         <v>36</v>
       </c>
@@ -3671,19 +3671,19 @@
       <c r="G73" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H73" s="13"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="A74" s="16">
         <v>36</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="16" t="s">
         <v>152</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -3695,17 +3695,17 @@
       <c r="G74" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="18" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="13"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="7" t="s">
         <v>281</v>
       </c>
@@ -3715,13 +3715,13 @@
       <c r="G75" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="13"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="13"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="7" t="s">
         <v>44</v>
       </c>
@@ -3731,19 +3731,19 @@
       <c r="G76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="13"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
+      <c r="A77" s="16">
         <v>37</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -3755,17 +3755,17 @@
       <c r="G77" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="18" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="13"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="7" t="s">
         <v>45</v>
       </c>
@@ -3775,16 +3775,16 @@
       <c r="G78" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="13"/>
+      <c r="H78" s="16"/>
       <c r="I78" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="13"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="7" t="s">
         <v>44</v>
       </c>
@@ -3794,22 +3794,22 @@
       <c r="G79" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="13"/>
+      <c r="H79" s="16"/>
       <c r="I79" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
+      <c r="A80" s="16">
         <v>38</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E80" s="7" t="s">
@@ -3821,17 +3821,17 @@
       <c r="G80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="H80" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="18" t="s">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D81" s="13"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="7" t="s">
         <v>54</v>
       </c>
@@ -3841,13 +3841,13 @@
       <c r="G81" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="13"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="13"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="7" t="s">
         <v>52</v>
       </c>
@@ -3857,22 +3857,22 @@
       <c r="G82" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="13"/>
+      <c r="H82" s="16"/>
       <c r="I82" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="13">
+      <c r="A83" s="16">
         <v>39</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -3884,17 +3884,17 @@
       <c r="G83" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="16" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
+    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D84" s="13"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="7" t="s">
         <v>60</v>
       </c>
@@ -3904,22 +3904,22 @@
       <c r="G84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="13"/>
+      <c r="H84" s="16"/>
       <c r="I84" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="13">
+      <c r="A85" s="16">
         <v>40</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="16" t="s">
         <v>63</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -3931,17 +3931,17 @@
       <c r="G85" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="H85" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="18" t="s">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D86" s="13"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="7" t="s">
         <v>54</v>
       </c>
@@ -3951,13 +3951,13 @@
       <c r="G86" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="13"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="13"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="16"/>
       <c r="E87" s="7" t="s">
         <v>64</v>
       </c>
@@ -3967,22 +3967,22 @@
       <c r="G87" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="13"/>
+      <c r="H87" s="16"/>
       <c r="I87" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
+      <c r="A88" s="16">
         <v>41</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -3994,17 +3994,17 @@
       <c r="G88" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="H88" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="13"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="7" t="s">
         <v>65</v>
       </c>
@@ -4014,22 +4014,22 @@
       <c r="G89" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="13"/>
+      <c r="H89" s="16"/>
       <c r="I89" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
+      <c r="A90" s="16">
         <v>42</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="16" t="s">
         <v>76</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -4041,17 +4041,17 @@
       <c r="G90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="13"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="7" t="s">
         <v>74</v>
       </c>
@@ -4061,64 +4061,64 @@
       <c r="G91" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="13"/>
+      <c r="H91" s="16"/>
       <c r="I91" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="13">
+      <c r="A92" s="16">
         <v>43</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="F92" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G92" s="20" t="s">
+      <c r="G92" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="I92" s="20" t="s">
+      <c r="I92" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="20"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="28"/>
     </row>
     <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="13">
+      <c r="A94" s="16">
         <v>44</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -4130,17 +4130,17 @@
       <c r="G94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="18" t="s">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D95" s="13"/>
+      <c r="D95" s="16"/>
       <c r="E95" s="7" t="s">
         <v>85</v>
       </c>
@@ -4150,13 +4150,13 @@
       <c r="G95" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="13"/>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="13"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="16"/>
       <c r="E96" s="7" t="s">
         <v>89</v>
       </c>
@@ -4166,13 +4166,13 @@
       <c r="G96" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="13"/>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="13"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="16"/>
       <c r="E97" s="7" t="s">
         <v>90</v>
       </c>
@@ -4182,13 +4182,13 @@
       <c r="G97" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H97" s="13"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="13"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="7" t="s">
         <v>91</v>
       </c>
@@ -4198,19 +4198,19 @@
       <c r="G98" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H98" s="13"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="13">
+      <c r="A99" s="16">
         <v>45</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="16" t="s">
         <v>95</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -4222,17 +4222,17 @@
       <c r="G99" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H99" s="13" t="s">
+      <c r="H99" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="18" t="s">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D100" s="13"/>
+      <c r="D100" s="16"/>
       <c r="E100" s="7" t="s">
         <v>97</v>
       </c>
@@ -4242,13 +4242,13 @@
       <c r="G100" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="13"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="13"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="7" t="s">
         <v>87</v>
       </c>
@@ -4258,13 +4258,13 @@
       <c r="G101" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="13"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="13"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="16"/>
       <c r="E102" s="7" t="s">
         <v>88</v>
       </c>
@@ -4274,19 +4274,19 @@
       <c r="G102" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="13"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="13">
+      <c r="A103" s="16">
         <v>46</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="12" t="s">
         <v>99</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4298,17 +4298,17 @@
       <c r="G103" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="25" t="s">
+      <c r="H103" s="24" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
-      <c r="B104" s="21"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D104" s="21"/>
+      <c r="D104" s="19"/>
       <c r="E104" s="7" t="s">
         <v>101</v>
       </c>
@@ -4321,10 +4321,10 @@
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="21"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="19"/>
       <c r="E105" s="7" t="s">
         <v>102</v>
       </c>
@@ -4337,10 +4337,10 @@
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="21"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="19"/>
       <c r="E106" s="7" t="s">
         <v>103</v>
       </c>
@@ -4353,10 +4353,10 @@
       <c r="H106" s="26"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="15"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="13"/>
       <c r="E107" s="7" t="s">
         <v>104</v>
       </c>
@@ -4366,19 +4366,19 @@
       <c r="G107" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="27"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="13">
+      <c r="A108" s="16">
         <v>47</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="12" t="s">
         <v>106</v>
       </c>
       <c r="E108" s="7" t="s">
@@ -4390,17 +4390,17 @@
       <c r="G108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="25" t="s">
+      <c r="H108" s="24" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D109" s="21"/>
+      <c r="D109" s="19"/>
       <c r="E109" s="7" t="s">
         <v>108</v>
       </c>
@@ -4413,10 +4413,10 @@
       <c r="H109" s="26"/>
     </row>
     <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="13"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="21"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="19"/>
       <c r="E110" s="7" t="s">
         <v>109</v>
       </c>
@@ -4429,10 +4429,10 @@
       <c r="H110" s="26"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="15"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="13"/>
       <c r="E111" s="7" t="s">
         <v>110</v>
       </c>
@@ -4442,19 +4442,19 @@
       <c r="G111" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H111" s="27"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="14">
+      <c r="A112" s="12">
         <v>48</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="12" t="s">
         <v>115</v>
       </c>
       <c r="E112" s="22" t="s">
@@ -4463,36 +4463,36 @@
       <c r="F112" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G112" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="25" t="s">
+      <c r="G112" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="24" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="27"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="14">
+      <c r="A114" s="12">
         <v>49</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="12" t="s">
         <v>123</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="12" t="s">
         <v>124</v>
       </c>
       <c r="E114" s="22" t="s">
@@ -4501,40 +4501,40 @@
       <c r="F114" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="G114" s="11" t="s">
+      <c r="G114" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="25" t="s">
+      <c r="H114" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="I114" s="11" t="s">
+      <c r="I114" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D115" s="15"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="12"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="15"/>
     </row>
     <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="14">
+      <c r="A116" s="12">
         <v>50</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="12" t="s">
         <v>123</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="12" t="s">
         <v>127</v>
       </c>
       <c r="E116" s="22" t="s">
@@ -4543,40 +4543,40 @@
       <c r="F116" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G116" s="11" t="s">
+      <c r="G116" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="25" t="s">
+      <c r="H116" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="I116" s="11" t="s">
+      <c r="I116" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D117" s="15"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="12"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="15"/>
     </row>
     <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="14">
+      <c r="A118" s="12">
         <v>51</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="12" t="s">
         <v>137</v>
       </c>
       <c r="E118" s="7" t="s">
@@ -4588,17 +4588,17 @@
       <c r="G118" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H118" s="14" t="s">
+      <c r="H118" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D119" s="21"/>
+      <c r="D119" s="19"/>
       <c r="E119" s="22" t="s">
         <v>132</v>
       </c>
@@ -4608,31 +4608,31 @@
       <c r="G119" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H119" s="21"/>
+      <c r="H119" s="19"/>
     </row>
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D120" s="15"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="15"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="14">
+      <c r="A121" s="12">
         <v>52</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="12" t="s">
         <v>138</v>
       </c>
       <c r="E121" s="7" t="s">
@@ -4644,17 +4644,17 @@
       <c r="G121" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H121" s="14" t="s">
+      <c r="H121" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="21"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D122" s="21"/>
+      <c r="D122" s="19"/>
       <c r="E122" s="22" t="s">
         <v>133</v>
       </c>
@@ -4664,31 +4664,31 @@
       <c r="G122" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H122" s="21"/>
+      <c r="H122" s="19"/>
     </row>
     <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D123" s="15"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="15"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="14">
+      <c r="A124" s="12">
         <v>53</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="12" t="s">
         <v>139</v>
       </c>
       <c r="E124" s="7" t="s">
@@ -4700,17 +4700,17 @@
       <c r="G124" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H124" s="14" t="s">
+      <c r="H124" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="21"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="21"/>
+      <c r="D125" s="19"/>
       <c r="E125" s="22" t="s">
         <v>134</v>
       </c>
@@ -4720,31 +4720,31 @@
       <c r="G125" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="21"/>
+      <c r="H125" s="19"/>
     </row>
     <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="15"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="14">
+      <c r="A127" s="12">
         <v>54</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E127" s="7" t="s">
@@ -4756,51 +4756,51 @@
       <c r="G127" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H127" s="14" t="s">
+      <c r="H127" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="21"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="21"/>
+      <c r="D128" s="19"/>
       <c r="E128" s="22" t="s">
         <v>135</v>
       </c>
       <c r="F128" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="G128" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="21"/>
+      <c r="G128" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" s="19"/>
     </row>
     <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="15"/>
-      <c r="B129" s="21"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D129" s="15"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="15"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="14">
+      <c r="A130" s="12">
         <v>55</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -4812,51 +4812,51 @@
       <c r="G130" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H130" s="14" t="s">
+      <c r="H130" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D131" s="21"/>
+      <c r="D131" s="19"/>
       <c r="E131" s="22" t="s">
         <v>132</v>
       </c>
       <c r="F131" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G131" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H131" s="21"/>
+      <c r="G131" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="19"/>
     </row>
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="15"/>
-      <c r="B132" s="21"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D132" s="21"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="15"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="14">
+      <c r="A133" s="12">
         <v>56</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="12" t="s">
         <v>147</v>
       </c>
       <c r="E133" s="7" t="s">
@@ -4868,51 +4868,51 @@
       <c r="G133" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="14" t="s">
+      <c r="H133" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="21"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D134" s="21"/>
+      <c r="D134" s="19"/>
       <c r="E134" s="22" t="s">
         <v>133</v>
       </c>
       <c r="F134" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G134" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H134" s="21"/>
+      <c r="G134" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="19"/>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="15"/>
-      <c r="B135" s="21"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D135" s="21"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="15"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="14">
+      <c r="A136" s="12">
         <v>57</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D136" s="12" t="s">
         <v>155</v>
       </c>
       <c r="E136" s="7" t="s">
@@ -4924,51 +4924,51 @@
       <c r="G136" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H136" s="14" t="s">
+      <c r="H136" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="21"/>
-      <c r="B137" s="21"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D137" s="21"/>
+      <c r="D137" s="19"/>
       <c r="E137" s="22" t="s">
         <v>156</v>
       </c>
       <c r="F137" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G137" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H137" s="21"/>
+      <c r="G137" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="19"/>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="15"/>
-      <c r="B138" s="21"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D138" s="21"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="15"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="14">
+      <c r="A139" s="12">
         <v>58</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="12" t="s">
         <v>155</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -4980,51 +4980,51 @@
       <c r="G139" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H139" s="14" t="s">
+      <c r="H139" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="21"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D140" s="21"/>
+      <c r="D140" s="19"/>
       <c r="E140" s="22" t="s">
         <v>156</v>
       </c>
       <c r="F140" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G140" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H140" s="21"/>
+      <c r="G140" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="19"/>
     </row>
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="15"/>
-      <c r="B141" s="21"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D141" s="21"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="15"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="14">
+      <c r="A142" s="12">
         <v>59</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D142" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E142" s="7" t="s">
@@ -5036,51 +5036,51 @@
       <c r="G142" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="14" t="s">
+      <c r="H142" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D143" s="21"/>
+      <c r="D143" s="19"/>
       <c r="E143" s="22" t="s">
         <v>159</v>
       </c>
       <c r="F143" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G143" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H143" s="21"/>
+      <c r="G143" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="19"/>
     </row>
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="15"/>
-      <c r="B144" s="21"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D144" s="21"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="15"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="14">
+      <c r="A145" s="12">
         <v>60</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D145" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E145" s="7" t="s">
@@ -5092,51 +5092,51 @@
       <c r="G145" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="14" t="s">
+      <c r="H145" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D146" s="21"/>
+      <c r="D146" s="19"/>
       <c r="E146" s="22" t="s">
         <v>159</v>
       </c>
       <c r="F146" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G146" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H146" s="21"/>
+      <c r="G146" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="19"/>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="15"/>
-      <c r="B147" s="21"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D147" s="21"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="15"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="14">
+      <c r="A148" s="12">
         <v>61</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E148" s="7" t="s">
@@ -5148,51 +5148,51 @@
       <c r="G148" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H148" s="14" t="s">
+      <c r="H148" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D149" s="21"/>
+      <c r="D149" s="19"/>
       <c r="E149" s="22" t="s">
         <v>159</v>
       </c>
       <c r="F149" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G149" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="21"/>
+      <c r="G149" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="19"/>
     </row>
     <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="15"/>
-      <c r="B150" s="21"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D150" s="21"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="15"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="13"/>
     </row>
     <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="14">
+      <c r="A151" s="12">
         <v>62</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="12" t="s">
         <v>162</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -5204,51 +5204,51 @@
       <c r="G151" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H151" s="14" t="s">
+      <c r="H151" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="21"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D152" s="21"/>
+      <c r="D152" s="19"/>
       <c r="E152" s="22" t="s">
         <v>163</v>
       </c>
       <c r="F152" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G152" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H152" s="21"/>
+      <c r="G152" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="19"/>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="15"/>
-      <c r="B153" s="21"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D153" s="21"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="15"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="13"/>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="14">
+      <c r="A154" s="12">
         <v>63</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="D154" s="12" t="s">
         <v>169</v>
       </c>
       <c r="E154" s="7" t="s">
@@ -5260,51 +5260,51 @@
       <c r="G154" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H154" s="14" t="s">
+      <c r="H154" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D155" s="21"/>
+      <c r="D155" s="19"/>
       <c r="E155" s="22" t="s">
         <v>132</v>
       </c>
       <c r="F155" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G155" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" s="21"/>
+      <c r="G155" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="19"/>
     </row>
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="15"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D156" s="15"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="15"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="14">
+      <c r="A157" s="12">
         <v>64</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="12" t="s">
         <v>168</v>
       </c>
       <c r="E157" s="7" t="s">
@@ -5316,51 +5316,51 @@
       <c r="G157" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H157" s="14" t="s">
+      <c r="H157" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D158" s="21"/>
+      <c r="D158" s="19"/>
       <c r="E158" s="22" t="s">
         <v>133</v>
       </c>
       <c r="F158" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G158" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H158" s="21"/>
+      <c r="G158" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="19"/>
     </row>
     <row r="159" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="15"/>
-      <c r="B159" s="21"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D159" s="15"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="15"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="13"/>
     </row>
     <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="14">
+      <c r="A160" s="12">
         <v>65</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="12" t="s">
         <v>170</v>
       </c>
       <c r="E160" s="7" t="s">
@@ -5372,51 +5372,51 @@
       <c r="G160" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H160" s="14" t="s">
+      <c r="H160" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D161" s="21"/>
+      <c r="D161" s="19"/>
       <c r="E161" s="22" t="s">
         <v>156</v>
       </c>
       <c r="F161" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G161" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="21"/>
+      <c r="G161" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="19"/>
     </row>
     <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="15"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D162" s="21"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="15"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="13"/>
     </row>
     <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="14">
+      <c r="A163" s="12">
         <v>66</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E163" s="7" t="s">
@@ -5428,51 +5428,51 @@
       <c r="G163" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H163" s="14" t="s">
+      <c r="H163" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D164" s="21"/>
+      <c r="D164" s="19"/>
       <c r="E164" s="22" t="s">
         <v>159</v>
       </c>
       <c r="F164" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G164" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="21"/>
+      <c r="G164" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="19"/>
     </row>
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="15"/>
-      <c r="B165" s="21"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="15"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="13"/>
     </row>
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="14">
+      <c r="A166" s="12">
         <v>67</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D166" s="12" t="s">
         <v>172</v>
       </c>
       <c r="E166" s="7" t="s">
@@ -5484,51 +5484,51 @@
       <c r="G166" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H166" s="14" t="s">
+      <c r="H166" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D167" s="21"/>
+      <c r="D167" s="19"/>
       <c r="E167" s="22" t="s">
         <v>173</v>
       </c>
       <c r="F167" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="G167" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="21"/>
+      <c r="G167" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="19"/>
     </row>
     <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="15"/>
-      <c r="B168" s="21"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D168" s="21"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="15"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="13"/>
     </row>
     <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="14">
+      <c r="A169" s="12">
         <v>68</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="12" t="s">
         <v>174</v>
       </c>
       <c r="E169" s="7" t="s">
@@ -5540,51 +5540,51 @@
       <c r="G169" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H169" s="14" t="s">
+      <c r="H169" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="21"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D170" s="21"/>
+      <c r="D170" s="19"/>
       <c r="E170" s="22" t="s">
         <v>163</v>
       </c>
       <c r="F170" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G170" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" s="21"/>
+      <c r="G170" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="19"/>
     </row>
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A171" s="15"/>
-      <c r="B171" s="21"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D171" s="21"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="15"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="13"/>
     </row>
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="14">
+      <c r="A172" s="12">
         <v>69</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="12" t="s">
         <v>182</v>
       </c>
       <c r="E172" s="7" t="s">
@@ -5596,17 +5596,17 @@
       <c r="G172" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H172" s="14" t="s">
+      <c r="H172" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="21"/>
-      <c r="B173" s="21"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D173" s="21"/>
+      <c r="D173" s="19"/>
       <c r="E173" s="22" t="s">
         <v>134</v>
       </c>
@@ -5616,31 +5616,31 @@
       <c r="G173" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H173" s="21"/>
+      <c r="H173" s="19"/>
     </row>
     <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="15"/>
-      <c r="B174" s="15"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="13"/>
       <c r="C174" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D174" s="15"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="15"/>
+      <c r="H174" s="13"/>
     </row>
     <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="14">
+      <c r="A175" s="12">
         <v>70</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="12" t="s">
         <v>183</v>
       </c>
       <c r="E175" s="7" t="s">
@@ -5652,51 +5652,51 @@
       <c r="G175" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H175" s="14" t="s">
+      <c r="H175" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="21"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D176" s="21"/>
+      <c r="D176" s="19"/>
       <c r="E176" s="22" t="s">
         <v>135</v>
       </c>
       <c r="F176" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G176" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H176" s="21"/>
+      <c r="G176" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="19"/>
     </row>
     <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="15"/>
-      <c r="B177" s="21"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D177" s="15"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="15"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="14">
+      <c r="A178" s="12">
         <v>71</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="12" t="s">
         <v>190</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E178" s="22" t="s">
@@ -5705,36 +5705,36 @@
       <c r="F178" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="G178" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H178" s="14" t="s">
+      <c r="G178" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="12" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="15"/>
-      <c r="B179" s="15"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="13"/>
       <c r="C179" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D179" s="15"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="15"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="13"/>
     </row>
     <row r="180" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="14">
+      <c r="A180" s="12">
         <v>72</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C180" s="14" t="s">
+      <c r="C180" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D180" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -5746,15 +5746,15 @@
       <c r="G180" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H180" s="14" t="s">
+      <c r="H180" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="21"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
       <c r="E181" s="2" t="s">
         <v>198</v>
       </c>
@@ -5764,13 +5764,13 @@
       <c r="G181" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H181" s="21"/>
+      <c r="H181" s="19"/>
     </row>
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
       <c r="E182" s="7" t="s">
         <v>200</v>
       </c>
@@ -5780,13 +5780,13 @@
       <c r="G182" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H182" s="21"/>
+      <c r="H182" s="19"/>
     </row>
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A183" s="21"/>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
       <c r="E183" s="7" t="s">
         <v>201</v>
       </c>
@@ -5796,19 +5796,19 @@
       <c r="G183" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H183" s="15"/>
+      <c r="H183" s="13"/>
     </row>
     <row r="184" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A184" s="14">
+      <c r="A184" s="12">
         <v>73</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C184" s="14" t="s">
+      <c r="C184" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="D184" s="12" t="s">
         <v>204</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -5820,15 +5820,15 @@
       <c r="G184" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H184" s="14" t="s">
+      <c r="H184" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="21"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="21"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
       <c r="E185" s="2" t="s">
         <v>198</v>
       </c>
@@ -5838,13 +5838,13 @@
       <c r="G185" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H185" s="21"/>
+      <c r="H185" s="19"/>
     </row>
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="21"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="21"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
       <c r="E186" s="7" t="s">
         <v>205</v>
       </c>
@@ -5854,19 +5854,19 @@
       <c r="G186" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H186" s="21"/>
+      <c r="H186" s="19"/>
     </row>
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="28">
+      <c r="A187" s="20">
         <v>74</v>
       </c>
-      <c r="B187" s="28" t="s">
+      <c r="B187" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C187" s="28" t="s">
+      <c r="C187" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D187" s="28" t="s">
+      <c r="D187" s="20" t="s">
         <v>207</v>
       </c>
       <c r="E187" s="2" t="s">
@@ -5878,15 +5878,15 @@
       <c r="G187" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H187" s="28" t="s">
+      <c r="H187" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="29"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
       <c r="E188" s="2" t="s">
         <v>209</v>
       </c>
@@ -5896,19 +5896,19 @@
       <c r="G188" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H188" s="29"/>
+      <c r="H188" s="21"/>
     </row>
     <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="28">
+      <c r="A189" s="20">
         <v>75</v>
       </c>
-      <c r="B189" s="28" t="s">
+      <c r="B189" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C189" s="28" t="s">
+      <c r="C189" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D189" s="28" t="s">
+      <c r="D189" s="20" t="s">
         <v>212</v>
       </c>
       <c r="E189" s="2" t="s">
@@ -5920,15 +5920,15 @@
       <c r="G189" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H189" s="28" t="s">
+      <c r="H189" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="29"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
       <c r="E190" s="2" t="s">
         <v>213</v>
       </c>
@@ -5938,19 +5938,19 @@
       <c r="G190" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H190" s="29"/>
+      <c r="H190" s="21"/>
     </row>
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="28">
+      <c r="A191" s="20">
         <v>76</v>
       </c>
-      <c r="B191" s="28" t="s">
+      <c r="B191" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C191" s="28" t="s">
+      <c r="C191" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D191" s="28" t="s">
+      <c r="D191" s="20" t="s">
         <v>214</v>
       </c>
       <c r="E191" s="2" t="s">
@@ -5962,15 +5962,15 @@
       <c r="G191" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H191" s="28" t="s">
+      <c r="H191" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="29"/>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
       <c r="E192" s="2" t="s">
         <v>215</v>
       </c>
@@ -5980,19 +5980,19 @@
       <c r="G192" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H192" s="29"/>
+      <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="28">
+      <c r="A193" s="20">
         <v>77</v>
       </c>
-      <c r="B193" s="28" t="s">
+      <c r="B193" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C193" s="28" t="s">
+      <c r="C193" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D193" s="28" t="s">
+      <c r="D193" s="20" t="s">
         <v>216</v>
       </c>
       <c r="E193" s="2" t="s">
@@ -6004,15 +6004,15 @@
       <c r="G193" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H193" s="28" t="s">
+      <c r="H193" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
-      <c r="D194" s="29"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
       <c r="E194" s="2" t="s">
         <v>217</v>
       </c>
@@ -6022,19 +6022,19 @@
       <c r="G194" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H194" s="29"/>
+      <c r="H194" s="21"/>
     </row>
     <row r="195" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="28">
+      <c r="A195" s="20">
         <v>78</v>
       </c>
-      <c r="B195" s="28" t="s">
+      <c r="B195" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C195" s="28" t="s">
+      <c r="C195" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D195" s="28" t="s">
+      <c r="D195" s="20" t="s">
         <v>223</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -6046,15 +6046,15 @@
       <c r="G195" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H195" s="28" t="s">
+      <c r="H195" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="29"/>
-      <c r="B196" s="29"/>
-      <c r="C196" s="29"/>
-      <c r="D196" s="29"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
       <c r="E196" s="2" t="s">
         <v>224</v>
       </c>
@@ -6064,19 +6064,19 @@
       <c r="G196" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H196" s="29"/>
+      <c r="H196" s="21"/>
     </row>
     <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="28">
+      <c r="A197" s="20">
         <v>79</v>
       </c>
-      <c r="B197" s="28" t="s">
+      <c r="B197" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C197" s="28" t="s">
+      <c r="C197" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D197" s="28" t="s">
+      <c r="D197" s="20" t="s">
         <v>226</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -6088,15 +6088,15 @@
       <c r="G197" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H197" s="28" t="s">
+      <c r="H197" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="29"/>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
       <c r="E198" s="2" t="s">
         <v>227</v>
       </c>
@@ -6106,19 +6106,19 @@
       <c r="G198" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H198" s="29"/>
+      <c r="H198" s="21"/>
     </row>
     <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="28">
+      <c r="A199" s="20">
         <v>80</v>
       </c>
-      <c r="B199" s="28" t="s">
+      <c r="B199" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C199" s="28" t="s">
+      <c r="C199" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D199" s="28" t="s">
+      <c r="D199" s="20" t="s">
         <v>228</v>
       </c>
       <c r="E199" s="2" t="s">
@@ -6130,15 +6130,15 @@
       <c r="G199" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H199" s="28" t="s">
+      <c r="H199" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="29"/>
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="29"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
       <c r="E200" s="2" t="s">
         <v>229</v>
       </c>
@@ -6148,22 +6148,22 @@
       <c r="G200" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H200" s="29"/>
+      <c r="H200" s="21"/>
       <c r="I200" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="28">
+      <c r="A201" s="20">
         <v>81</v>
       </c>
-      <c r="B201" s="28" t="s">
+      <c r="B201" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C201" s="28" t="s">
+      <c r="C201" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D201" s="28" t="s">
+      <c r="D201" s="20" t="s">
         <v>232</v>
       </c>
       <c r="E201" s="2" t="s">
@@ -6175,15 +6175,15 @@
       <c r="G201" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H201" s="28" t="s">
+      <c r="H201" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="29"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
+      <c r="A202" s="21"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
       <c r="E202" s="2" t="s">
         <v>233</v>
       </c>
@@ -6193,19 +6193,19 @@
       <c r="G202" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H202" s="29"/>
+      <c r="H202" s="21"/>
     </row>
     <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="28">
+      <c r="A203" s="20">
         <v>82</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B203" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C203" s="28" t="s">
+      <c r="C203" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D203" s="28" t="s">
+      <c r="D203" s="20" t="s">
         <v>234</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -6217,15 +6217,15 @@
       <c r="G203" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H203" s="28" t="s">
+      <c r="H203" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="29"/>
-      <c r="B204" s="15"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
+      <c r="A204" s="21"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
       <c r="E204" s="2" t="s">
         <v>235</v>
       </c>
@@ -6235,19 +6235,19 @@
       <c r="G204" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H204" s="29"/>
+      <c r="H204" s="21"/>
     </row>
     <row r="205" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="14">
+      <c r="A205" s="12">
         <v>83</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="B205" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C205" s="14" t="s">
+      <c r="C205" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D205" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -6259,15 +6259,15 @@
       <c r="G205" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H205" s="14" t="s">
+      <c r="H205" s="12" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="21"/>
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
       <c r="E206" s="2" t="s">
         <v>238</v>
       </c>
@@ -6277,13 +6277,13 @@
       <c r="G206" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H206" s="21"/>
+      <c r="H206" s="19"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="21"/>
-      <c r="B207" s="21"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="21"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
       <c r="E207" s="2" t="s">
         <v>239</v>
       </c>
@@ -6293,13 +6293,13 @@
       <c r="G207" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H207" s="21"/>
+      <c r="H207" s="19"/>
     </row>
     <row r="208" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="15"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
+      <c r="A208" s="13"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
       <c r="E208" s="2" t="s">
         <v>240</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="G208" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H208" s="15"/>
+      <c r="H208" s="13"/>
     </row>
     <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
@@ -6391,218 +6391,290 @@
     </row>
   </sheetData>
   <mergeCells count="520">
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H205:H208"/>
-    <mergeCell ref="D205:D208"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="D180:D183"/>
-    <mergeCell ref="H180:H183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="H184:H186"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="C180:C183"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="H175:H177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H169:H171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="D172:D174"/>
-    <mergeCell ref="H172:H174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="H166:H168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="H160:H162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="H157:H159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="H151:H153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="H145:H147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="H103:H107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="H121:H123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H127:H129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H130:H132"/>
+    <mergeCell ref="B130:B132"/>
     <mergeCell ref="A142:A144"/>
     <mergeCell ref="B142:B144"/>
     <mergeCell ref="D142:D144"/>
@@ -6627,290 +6699,218 @@
     <mergeCell ref="F137:F138"/>
     <mergeCell ref="G137:G138"/>
     <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="H121:H123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="H127:H129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="H103:H107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="H151:H153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="H160:H162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="H157:H159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="H175:H177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="D172:D174"/>
+    <mergeCell ref="H172:H174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="C180:C183"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D180:D183"/>
+    <mergeCell ref="H180:H183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="H184:H186"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="H205:H208"/>
+    <mergeCell ref="D205:D208"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
   </mergeCells>
   <conditionalFormatting sqref="E94:E98">
     <cfRule type="duplicateValues" dxfId="79" priority="103"/>
